--- a/sharefiles/Menu.xlsx
+++ b/sharefiles/Menu.xlsx
@@ -14,159 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t xml:space="preserve"> 1</t>
   </si>
   <si>
-    <t>Меню</t>
-  </si>
-  <si>
-    <t>Основное меню</t>
-  </si>
-  <si>
-    <t>Холодные закуски</t>
-  </si>
-  <si>
-    <t>К пиву</t>
-  </si>
-  <si>
-    <t>Сельдь Бисмарк</t>
-  </si>
-  <si>
-    <t>Традиционное немецкое блюдо из маринованной сельди</t>
-  </si>
-  <si>
-    <t>182.99</t>
+    <t>BREAKFAST MENU</t>
+  </si>
+  <si>
+    <t>EVERYDAY FROM 7AM TO 11AM</t>
+  </si>
+  <si>
+    <t>HOT BREAKFAST</t>
+  </si>
+  <si>
+    <t>MANY IDEAS FOR BUSY MORNINGS</t>
+  </si>
+  <si>
+    <t>DISH 1</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF DISH 1</t>
+  </si>
+  <si>
+    <t>16.5</t>
   </si>
   <si>
     <t xml:space="preserve"> 2</t>
   </si>
   <si>
-    <t>Мясная тарелка</t>
-  </si>
-  <si>
-    <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра, фруктов и фокаччи</t>
-  </si>
-  <si>
-    <t>215.36</t>
+    <t>DISH 2</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF DISH 2</t>
+  </si>
+  <si>
+    <t>8.5</t>
   </si>
   <si>
     <t xml:space="preserve"> 3</t>
   </si>
   <si>
-    <t>Рыбная тарелка</t>
-  </si>
-  <si>
-    <t>Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
-  </si>
-  <si>
-    <t>265.57</t>
-  </si>
-  <si>
-    <t>Рамен</t>
-  </si>
-  <si>
-    <t>Горячий рамен</t>
-  </si>
-  <si>
-    <t>Дайзу рамен</t>
-  </si>
-  <si>
-    <t>Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
-  </si>
-  <si>
-    <t>166.47</t>
-  </si>
-  <si>
-    <t>Унаги рамен</t>
-  </si>
-  <si>
-    <t>Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
-  </si>
-  <si>
-    <t>168.25</t>
-  </si>
-  <si>
-    <t>Чиизу Рамен</t>
-  </si>
-  <si>
-    <t>Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
-  </si>
-  <si>
-    <t>132.88</t>
-  </si>
-  <si>
-    <t>Алкогольное меню</t>
-  </si>
-  <si>
-    <t>Алкогольные напитки</t>
-  </si>
-  <si>
-    <t>Красные вина</t>
-  </si>
-  <si>
-    <t>Для романтичного вечера</t>
-  </si>
-  <si>
-    <t>Шемен де Пап ля Ноблесс</t>
-  </si>
-  <si>
-    <t>Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
-  </si>
-  <si>
-    <t>2700.79</t>
-  </si>
-  <si>
-    <t>Рипароссо Монтепульчано</t>
-  </si>
-  <si>
-    <t>Вино красное, сухое</t>
-  </si>
-  <si>
-    <t>3100.33</t>
-  </si>
-  <si>
-    <t>Кьянти, Серристори</t>
-  </si>
-  <si>
-    <t>Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
-  </si>
-  <si>
-    <t>1850.42</t>
-  </si>
-  <si>
-    <t>Виски</t>
-  </si>
-  <si>
-    <t>Для интересных бесед</t>
-  </si>
-  <si>
-    <t>Джемисон</t>
-  </si>
-  <si>
-    <t>Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
-  </si>
-  <si>
-    <t>420.78</t>
-  </si>
-  <si>
-    <t>Джек Дэниелс</t>
-  </si>
-  <si>
-    <t>Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
-  </si>
-  <si>
-    <t>440.11</t>
-  </si>
-  <si>
-    <t>Чивас Ригал</t>
-  </si>
-  <si>
-    <t>Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
-  </si>
-  <si>
-    <t>520.08</t>
+    <t>DISH 3</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF DISH 3</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>HOT BEVERAGES</t>
+  </si>
+  <si>
+    <t>HOT DRINKS TO KEEP YOU WARM THIS WINTER</t>
+  </si>
+  <si>
+    <t>DRINK 1</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF DRINK 1</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>DRINK 2</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF DRINK 2</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>DRINK 3</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF DRINK 3</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>DINING MENU</t>
+  </si>
+  <si>
+    <t>OUR DISHES ARE AVAILABLE AS A STARTER AS WELL AS A MAIN COURSE</t>
+  </si>
+  <si>
+    <t>ALL-DAY-DINING</t>
+  </si>
+  <si>
+    <t>A CHOICE OF DISHES FROM BREAKFAST THROUGH TO BRUNCH, LUNCH AND DINNER</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>FROM THE GRILL</t>
+  </si>
+  <si>
+    <t>OUR SPECIALTY</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -648,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -662,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -676,13 +634,13 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -690,10 +648,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -701,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -715,13 +673,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -729,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
